--- a/evaluation_results/tts_eval.xlsx
+++ b/evaluation_results/tts_eval.xlsx
@@ -1,37 +1,125 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\OneDrive\Asztali gép\Szakdolgozatv2\evaluation_results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10BC686-788B-429E-9A7B-25A9650C1DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="WER Results" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="WER Results" sheetId="1" r:id="rId1"/>
+    <sheet name="MOS Results" sheetId="2" r:id="rId2"/>
+    <sheet name="STOI Results" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+  <si>
+    <t>PyTTS Transcription</t>
+  </si>
+  <si>
+    <t>PyTTS WER</t>
+  </si>
+  <si>
+    <t>XTTS Transcription</t>
+  </si>
+  <si>
+    <t>XTTS WER</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The pharmaceutical industry has undergone significant transformations with the emergence of personalized medicine, biotechnology innovations, and artificial intelligence in drug discovery processes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Contemporary architecture and urban planning professionals are increasingly incorporating sustainable design principles such as green building certifications and rainwater harvesting technologies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Contemporary architecture and urban planning professionals are increasingly incorporating sustainable design principles, such as green building certifications and rainwater harvesting technology.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Quantum computing represents a paradigm shift in computational technology with its potential to solve problems in cryptography, optimization, and artificial intelligence through quantum mechanical phenomena.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Quantum computing represents a paradigm shift in computational technology with its potential to solve problems in cryptography, optimization, and artificial intelligence through quantum mechanical phenomena. That.</t>
+  </si>
+  <si>
+    <t>Reference file</t>
+  </si>
+  <si>
+    <t>PyTTS file</t>
+  </si>
+  <si>
+    <t>XTTS file</t>
+  </si>
+  <si>
+    <t>voice_files/bio.mp3</t>
+  </si>
+  <si>
+    <t>voice_files/pytts_answer_0.mp3</t>
+  </si>
+  <si>
+    <t>voice_files/xtts_answer_0.wav</t>
+  </si>
+  <si>
+    <t>voice_files/arch.mp3</t>
+  </si>
+  <si>
+    <t>voice_files/pytts_answer_1.mp3</t>
+  </si>
+  <si>
+    <t>voice_files/xtts_answer_1.wav</t>
+  </si>
+  <si>
+    <t>voice_files/quantum.mp3</t>
+  </si>
+  <si>
+    <t>voice_files/pytts_answer_2.mp3</t>
+  </si>
+  <si>
+    <t>voice_files/xtts_answer_2.wav</t>
+  </si>
+  <si>
+    <t>PyTTS STOI</t>
+  </si>
+  <si>
+    <t>XTTS STOI</t>
+  </si>
+  <si>
+    <t>PyTTS MOS Score</t>
+  </si>
+  <si>
+    <t>XTTS MOS Score</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +134,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,93 +458,226 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>9.5238095238095233E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>0.04</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.21875" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>PyTTS Transcription</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>PyTTS WER</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>XTTS Transcription</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>XTTS WER</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> The pharmaceutical industry has undergone significant transformations over the past decade with the emergence of personalized medicine, biotechnology innovations, and the integration of artificial intelligence in drug discovery processes, which have accelerated the development of novel therapeutics and improved patient outcomes through tailored treatment strategies.</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> The pharmaceutical industry has undergone significant transformations over the past decade with the emergence of personalized medicine, biotechnology innovations, and the integration of artificial intelligence in drug discovery processes, which have accelerated the development of novel therapeutics and improved patient outcomes through tailored treatment strategies.</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Contemporary architecture and urban planning professionals are increasingly incorporating sustainable design principles such as green building certifications, passive solar heating systems, rainwater harvesting technologies, and permeable pavements to minimize environmental impact while simultaneously enhancing the quality of life for residents in densely populated metropolitan areas.</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Contemporary architecture and urban planning professionals are increasingly incorporating sustainable design principles, such as green building certifications, passive solar heating systems, rainwater harvesting technologies, and permeable pavements to minimize environmental impact while simultaneously enhancing the quality of life for residents in densely populated metropolitan areas.</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.02222222222222222</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Quantum computing represents a paradigm shift in computational technology with its potential to solve previously intractable problems in cryptography, optimization, drug simulation, and artificial intelligence through the manipulation of quantum mechanical phenomena such as superposition and entanglement, thereby enabling exponential increases in processing power compared to classical computing architectures.</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Quantum computing represents a paradigm shift in computational technology with its potential to solve previously intractable problems in cryptography, optimization, drug simulation, and artificial intelligence through the manipulation of quantum mechanical phenomena. Such as superposition and entanglement thereby enabling exponential increases in processing power compared to classical...</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.1224489795918367</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>0.1572288805308297</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <v>0.16915119228127021</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>0.2028532411879414</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3">
+        <v>0.14715612129379399</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>0.23532653395397199</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>0.14350355290790059</v>
       </c>
     </row>
   </sheetData>

--- a/evaluation_results/tts_eval.xlsx
+++ b/evaluation_results/tts_eval.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\OneDrive\Asztali gép\Szakdolgozatv2\evaluation_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10BC686-788B-429E-9A7B-25A9650C1DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F634E77-917F-45F8-B8E8-61642C1486D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WER Results" sheetId="1" r:id="rId1"/>
     <sheet name="MOS Results" sheetId="2" r:id="rId2"/>
-    <sheet name="STOI Results" sheetId="3" r:id="rId3"/>
+    <sheet name="PESQ Results" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>PyTTS Transcription</t>
   </si>
@@ -57,9 +57,15 @@
     <t>PyTTS file</t>
   </si>
   <si>
+    <t>PyTTS MOS Score</t>
+  </si>
+  <si>
     <t>XTTS file</t>
   </si>
   <si>
+    <t>XTTS MOS Score</t>
+  </si>
+  <si>
     <t>voice_files/bio.mp3</t>
   </si>
   <si>
@@ -87,29 +93,46 @@
     <t>voice_files/xtts_answer_2.wav</t>
   </si>
   <si>
-    <t>PyTTS STOI</t>
-  </si>
-  <si>
-    <t>XTTS STOI</t>
-  </si>
-  <si>
-    <t>PyTTS MOS Score</t>
-  </si>
-  <si>
-    <t>XTTS MOS Score</t>
+    <t>PyTTS PESQ</t>
+  </si>
+  <si>
+    <t>XTTS PESQ</t>
+  </si>
+  <si>
+    <t>voice_files/bio.wav</t>
+  </si>
+  <si>
+    <t>voice_files/pytts_answer_0.wav</t>
+  </si>
+  <si>
+    <t>voice_files/arch.wav</t>
+  </si>
+  <si>
+    <t>voice_files/pytts_answer_1.wav</t>
+  </si>
+  <si>
+    <t>voice_files/quantum.wav</t>
+  </si>
+  <si>
+    <t>voice_files/pytts_answer_2.wav</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -125,7 +148,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -148,13 +171,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -530,7 +571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -551,46 +592,46 @@
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -602,82 +643,78 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
+      <c r="C1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C2">
-        <v>0.1572288805308297</v>
+        <v>2.1381525993347168</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E2">
-        <v>0.16915119228127021</v>
+        <v>1.2049235105514531</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C3">
-        <v>0.2028532411879414</v>
+        <v>1.0321565866470339</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3">
-        <v>0.14715612129379399</v>
+        <v>1.450883746147156</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C4">
-        <v>0.23532653395397199</v>
+        <v>1.046869277954102</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>0.14350355290790059</v>
+        <v>1.1197589635848999</v>
       </c>
     </row>
   </sheetData>

--- a/evaluation_results/tts_eval.xlsx
+++ b/evaluation_results/tts_eval.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\OneDrive\Asztali gép\Szakdolgozatv2\evaluation_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F634E77-917F-45F8-B8E8-61642C1486D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177B65B2-1A3C-4F85-B546-0B4437421E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="WER Results" sheetId="1" r:id="rId1"/>
-    <sheet name="MOS Results" sheetId="2" r:id="rId2"/>
-    <sheet name="PESQ Results" sheetId="3" r:id="rId3"/>
+    <sheet name="TTS WER Results" sheetId="1" r:id="rId1"/>
+    <sheet name="TTS CER Results" sheetId="2" r:id="rId2"/>
+    <sheet name="TTS PESQ Results" sheetId="3" r:id="rId3"/>
+    <sheet name="TTS MOS Results" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
   <si>
     <t>PyTTS Transcription</t>
   </si>
@@ -39,16 +40,22 @@
     <t xml:space="preserve"> The pharmaceutical industry has undergone significant transformations with the emergence of personalized medicine, biotechnology innovations, and artificial intelligence in drug discovery processes.</t>
   </si>
   <si>
+    <t xml:space="preserve"> The pharmaceutical industry has undergone significant transformations with the emergence of personalized medicine, biotechnology innovations, and artificial intelligence in drug discovery process.</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Contemporary architecture and urban planning professionals are increasingly incorporating sustainable design principles such as green building certifications and rainwater harvesting technologies.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Contemporary architecture and urban planning professionals are increasingly incorporating sustainable design principles, such as green building certifications and rainwater harvesting technology.</t>
+    <t xml:space="preserve"> Contemporary architecture and urban planning professionals are increasingly incorporating sustainable design principles, such as green building certifications and rainwater harvesting technologies.</t>
   </si>
   <si>
     <t xml:space="preserve"> Quantum computing represents a paradigm shift in computational technology with its potential to solve problems in cryptography, optimization, and artificial intelligence through quantum mechanical phenomena.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Quantum computing represents a paradigm shift in computational technology with its potential to solve problems in cryptography, optimization, and artificial intelligence through quantum mechanical phenomena. That.</t>
+    <t>PyTTS CER</t>
+  </si>
+  <si>
+    <t>XTTS CER</t>
   </si>
   <si>
     <t>Reference file</t>
@@ -57,82 +64,59 @@
     <t>PyTTS file</t>
   </si>
   <si>
-    <t>PyTTS MOS Score</t>
+    <t>PyTTS PESQ</t>
   </si>
   <si>
     <t>XTTS file</t>
   </si>
   <si>
-    <t>XTTS MOS Score</t>
-  </si>
-  <si>
-    <t>voice_files/bio.mp3</t>
-  </si>
-  <si>
-    <t>voice_files/pytts_answer_0.mp3</t>
+    <t>XTTS PESQ</t>
+  </si>
+  <si>
+    <t>voice_files/bio.wav</t>
+  </si>
+  <si>
+    <t>voice_files/pytts_answer_0.wav</t>
   </si>
   <si>
     <t>voice_files/xtts_answer_0.wav</t>
   </si>
   <si>
-    <t>voice_files/arch.mp3</t>
-  </si>
-  <si>
-    <t>voice_files/pytts_answer_1.mp3</t>
+    <t>voice_files/arch.wav</t>
+  </si>
+  <si>
+    <t>voice_files/pytts_answer_1.wav</t>
   </si>
   <si>
     <t>voice_files/xtts_answer_1.wav</t>
   </si>
   <si>
-    <t>voice_files/quantum.mp3</t>
-  </si>
-  <si>
-    <t>voice_files/pytts_answer_2.mp3</t>
+    <t>voice_files/quantum.wav</t>
+  </si>
+  <si>
+    <t>voice_files/pytts_answer_2.wav</t>
   </si>
   <si>
     <t>voice_files/xtts_answer_2.wav</t>
   </si>
   <si>
-    <t>PyTTS PESQ</t>
-  </si>
-  <si>
-    <t>XTTS PESQ</t>
-  </si>
-  <si>
-    <t>voice_files/bio.wav</t>
-  </si>
-  <si>
-    <t>voice_files/pytts_answer_0.wav</t>
-  </si>
-  <si>
-    <t>voice_files/arch.wav</t>
-  </si>
-  <si>
-    <t>voice_files/pytts_answer_1.wav</t>
-  </si>
-  <si>
-    <t>voice_files/quantum.wav</t>
-  </si>
-  <si>
-    <t>voice_files/pytts_answer_2.wav</t>
+    <t>PyTTS MOS</t>
+  </si>
+  <si>
+    <t>XTTS MOS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -148,7 +132,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -171,31 +155,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -502,11 +468,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="195.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="195.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -520,7 +492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -528,29 +500,29 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.5454545454545463E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3">
-        <v>9.5238095238095233E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.7619047619047623E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -559,7 +531,7 @@
         <v>8</v>
       </c>
       <c r="D4">
-        <v>0.04</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -569,69 +541,66 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="20.21875" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>1.01010101010101E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>5.1020408163265302E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -643,81 +612,152 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>2.1381525993347168</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E2">
-        <v>1.2049235105514531</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1.6787294149398799</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C3">
-        <v>1.0321565866470339</v>
+        <v>1.0321564674377439</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1.450883746147156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1.0513372421264651</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C4">
-        <v>1.046869277954102</v>
+        <v>1.0468688011169429</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>1.1197589635848999</v>
+        <v>1.3144359588623049</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6759E17B-B086-48F1-9FD4-375220D6B1BF}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/evaluation_results/tts_eval.xlsx
+++ b/evaluation_results/tts_eval.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\OneDrive\Asztali gép\Szakdolgozatv2\evaluation_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177B65B2-1A3C-4F85-B546-0B4437421E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2040890-2899-4FAA-A721-D676ED982167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -696,7 +696,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,8 +731,14 @@
       <c r="B2" t="s">
         <v>17</v>
       </c>
+      <c r="C2">
+        <v>1.5</v>
+      </c>
       <c r="D2" t="s">
         <v>18</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -742,8 +748,14 @@
       <c r="B3" t="s">
         <v>20</v>
       </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
       <c r="D3" t="s">
         <v>21</v>
+      </c>
+      <c r="E3">
+        <v>3.5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -753,8 +765,14 @@
       <c r="B4" t="s">
         <v>23</v>
       </c>
+      <c r="C4">
+        <v>1.5</v>
+      </c>
       <c r="D4" t="s">
         <v>24</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
